--- a/assets/data/DataBase.xlsx
+++ b/assets/data/DataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,14 +1223,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1426,15 +1426,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/assets/data/DataBase.xlsx
+++ b/assets/data/DataBase.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="AR3421 " sheetId="5" r:id="rId4"/>
     <sheet name="AR4001" sheetId="6" r:id="rId5"/>
     <sheet name="AR5011" sheetId="7" r:id="rId6"/>
+    <sheet name="AR5421" sheetId="8" r:id="rId7"/>
+    <sheet name="AR3101" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AR1101'!$A$1:$E$1</definedName>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="22">
   <si>
     <t>Group</t>
   </si>
@@ -95,6 +97,9 @@
   </si>
   <si>
     <t>l6-c1,l6-c2,l6-c3</t>
+  </si>
+  <si>
+    <t>l1-c1,l1-c2,l1-c5</t>
   </si>
 </sst>
 </file>
@@ -457,7 +462,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +568,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +829,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1106,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1383,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,7 +1634,7 @@
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1893,4 +1898,526 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>42957</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C2" s="1">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42964</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C3" s="1">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42971</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C4" s="1">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42978</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C5" s="1">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42985</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C6" s="1">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42992</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C7" s="1">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>42999</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C8" s="1">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>43013</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43020</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C10" s="1">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43027</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C11" s="1">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>43034</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C12" s="1">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43041</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C13" s="1">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>43048</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C14" s="1">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>43055</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C15" s="1">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1">
+        <v>30</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C2" s="1">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42961</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C3" s="1">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42968</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C4" s="1">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42975</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C5" s="1">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42982</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C6" s="1">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42989</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C7" s="1">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>42996</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C8" s="1">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>43010</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43017</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C10" s="1">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43024</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C11" s="1">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>43031</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C12" s="1">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43038</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C13" s="1">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>43045</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C14" s="1">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>43052</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C15" s="1">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>